--- a/Предварительный демоэкзамен/09A_1.9_1/Сессия 1/clientservice_a_import.xlsx
+++ b/Предварительный демоэкзамен/09A_1.9_1/Сессия 1/clientservice_a_import.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annet_000\Source\Repos\FGOS_SPO\FGOS_SPO\Res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\IdeaProjects\DemoEx\Предварительный демоэкзамен\09A_1.9_1\Сессия 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4110B821-6355-46FE-8DFE-44A8DA99F4A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09E48E93-7BA4-499A-9C86-00DA507E9FC7}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -340,7 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,21 +650,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8126DA-3596-496C-A3B6-83A36FBEDA30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
@@ -676,7 +675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -698,7 +697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -709,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -720,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -731,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -742,7 +741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -753,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -764,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -775,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -786,7 +785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -797,7 +796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -808,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -819,7 +818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -830,7 +829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -841,7 +840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -852,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -863,7 +862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -874,7 +873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -885,7 +884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -896,7 +895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -907,7 +906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -918,7 +917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -929,7 +928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -940,7 +939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -951,7 +950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -962,7 +961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -973,7 +972,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -984,7 +983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -995,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1017,7 +1016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1137,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
@@ -1171,7 +1170,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -1237,7 +1236,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -1314,7 +1313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>28</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>51</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1478,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>26</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>58</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>69</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>36</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>51</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>79</v>
       </c>
@@ -1600,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -1622,7 +1621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>80</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>26</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>42</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>57</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>63</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>57</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>28</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>45</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>49</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>39</v>
       </c>
